--- a/lib-chain-bitcoin-core/src/androidTest/java/com/smallraw/chain/bitcoincore/transaction/Bitcoin 各类型签字.xlsx
+++ b/lib-chain-bitcoin-core/src/androidTest/java/com/smallraw/chain/bitcoincore/transaction/Bitcoin 各类型签字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\ChainWallet\lib-chain-bitcoin-core\src\androidTest\java\com\smallraw\chain\bitcoincore\transaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16D43C-0E37-48D1-A085-E8879A8575DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015EA88-BB67-45EE-980A-963CAC87A4EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20805" windowHeight="12660" xr2:uid="{110F59E4-B9DD-46E5-B6E1-557EE10F49FD}"/>
   </bookViews>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[OP_0] [签名1] [签名2] [OP_M &lt;PK1&gt; &lt;PK2&gt; &lt;PK3&gt; OP_N CHECKMULTISIG]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P2SH-P2WPKH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,10 @@
   </si>
   <si>
     <t>P2PKH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Empty] [签名1] [签名2] [OP_M &lt;PK1&gt; &lt;PK2&gt; &lt;PK3&gt; OP_N CHECKMULTISIG]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4B0614-9F0C-4B8A-BFA2-C9295997E01B}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -531,10 +531,10 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -591,32 +591,32 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -624,29 +624,29 @@
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
